--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90673e817932bf7a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92EA51-B096-4350-8C23-C27B67862760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="926" documentId="8_{B30E760A-B5FE-4A8C-9C4C-DCAB75025A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8535029-5A2A-4983-9D95-5015047CF702}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11895" windowHeight="15585" xr2:uid="{12322D05-C4A5-4CF8-BA13-7AA186A6155C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1033F256-3499-4BE7-A150-DECF559EC62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,49 +36,356 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g20</t>
-  </si>
-  <si>
-    <t>g21</t>
-  </si>
-  <si>
-    <t>g30</t>
-  </si>
-  <si>
-    <t>g31</t>
-  </si>
-  <si>
-    <t>g4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>Funtion</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rs] + R[rt]</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rs] - R[rt]</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rs] &amp; R[rt]</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rs] | R[rt]</t>
+  </si>
+  <si>
+    <t>R[rd] = (R[rs] &lt; R[rt]) ? 1:0</t>
+  </si>
+  <si>
+    <t>PC = Jump Address</t>
+  </si>
+  <si>
+    <t>R[31] = PC+8; 
+PC=JumpAddr</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>shamt</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>I-Type</t>
+  </si>
+  <si>
+    <t>R-Type</t>
+  </si>
+  <si>
+    <t>J-Type</t>
+  </si>
+  <si>
+    <t>31----26</t>
+  </si>
+  <si>
+    <t>20----16</t>
+  </si>
+  <si>
+    <t>25----21</t>
+  </si>
+  <si>
+    <t>15----11</t>
+  </si>
+  <si>
+    <t>10----6</t>
+  </si>
+  <si>
+    <t>5----0</t>
+  </si>
+  <si>
+    <t>R[rt] = R[rs] + SignExtImm</t>
+  </si>
+  <si>
+    <t>R[rt] = M[R[rs] + SignExtImm]</t>
+  </si>
+  <si>
+    <t>M[R[rs] + SignExtImm] = R[rt]</t>
+  </si>
+  <si>
+    <t>R[rt] = R[rs] &amp; SignExtImm</t>
+  </si>
+  <si>
+    <t>R[rt] = R[rs] | SignExtImm</t>
+  </si>
+  <si>
+    <t>R[rt] = (R[rs] &lt; SignExtlmm) ? 1:0</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rt] &lt;&lt; shamt</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rt] &gt;&gt;&gt; shamt</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>R[rd] = ~(R[rs] | R[rt])</t>
+  </si>
+  <si>
+    <t>if(R[rs] = R[rt])
+PC= PC + 4 + BranchAddr</t>
+  </si>
+  <si>
+    <t>if(R[rs] != R[rt]) 
+PC = PC + 4 + BranchAddr</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>R[rd] = R[rs] ^ R[rt]</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>R[rt] = R[rs] ^ SignExtImm</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>no-operation</t>
+  </si>
+  <si>
+    <t>target address</t>
+  </si>
+  <si>
+    <t>00000 00000 001010</t>
+  </si>
+  <si>
+    <t>00010 10000 000011</t>
+  </si>
+  <si>
+    <t>00000 00000 00000 00000 001110</t>
+  </si>
+  <si>
+    <t>00100 00111 011110</t>
+  </si>
+  <si>
+    <t>00000 00000 000101</t>
+  </si>
+  <si>
+    <t>00100 11100 001111</t>
+  </si>
+  <si>
+    <t>00000 00000 000100</t>
+  </si>
+  <si>
+    <t>00000 00000 001000</t>
+  </si>
+  <si>
+    <t>00000 00000 001100</t>
+  </si>
+  <si>
+    <t>00000 00000 010000</t>
+  </si>
+  <si>
+    <t>00000 00000 010100</t>
+  </si>
+  <si>
+    <t>0000 0000 11111 11111 111111</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>11111 11111 110110</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>Subtraction</t>
+  </si>
+  <si>
+    <t>Add immediate</t>
+  </si>
+  <si>
+    <t>load word</t>
+  </si>
+  <si>
+    <t>store word</t>
+  </si>
+  <si>
+    <t>OR operation</t>
+  </si>
+  <si>
+    <t>AND operation</t>
+  </si>
+  <si>
+    <t>NOR operation</t>
+  </si>
+  <si>
+    <t>XOR operation</t>
+  </si>
+  <si>
+    <t>AND Immediate</t>
+  </si>
+  <si>
+    <t>OR Immediate</t>
+  </si>
+  <si>
+    <t>XOR Immediate</t>
+  </si>
+  <si>
+    <t>Set less than</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Set less than Immediate</t>
+  </si>
+  <si>
+    <t>Shift left logical</t>
+  </si>
+  <si>
+    <t>Shift right logical</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>jump and link</t>
+  </si>
+  <si>
+    <t>branch on equal</t>
+  </si>
+  <si>
+    <t>branch on not equal</t>
+  </si>
+  <si>
+    <t>$0 to $31</t>
+  </si>
+  <si>
+    <t>Registers (#32)</t>
+  </si>
+  <si>
+    <t>Instruction Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="168" formatCode="000000"/>
+    <numFmt numFmtId="169" formatCode="00000"/>
+    <numFmt numFmtId="170" formatCode="00000000000000000000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0000000000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +395,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +420,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -131,16 +450,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,159 +1039,1845 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3CA76-5D11-4836-8971-CD88A4B13AD2}">
-  <dimension ref="C5:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918F9291-AC2A-4F8F-A41A-8CC9C057B9BC}">
+  <dimension ref="B2:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="2" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="X2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="24"/>
+    </row>
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="X3" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="Z3" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="AF3" s="25"/>
+    </row>
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="S4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="30">
+        <v>2</v>
+      </c>
+      <c r="U4" s="30">
+        <v>0</v>
+      </c>
+      <c r="V4" s="30">
+        <v>1</v>
+      </c>
+      <c r="W4" s="23"/>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="26"/>
+    </row>
+    <row r="5" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>100010</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="30">
+        <v>4</v>
+      </c>
+      <c r="U5" s="30">
+        <v>3</v>
+      </c>
+      <c r="V5" s="30">
+        <v>2</v>
+      </c>
+      <c r="W5" s="23"/>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>100010</v>
+      </c>
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="30">
+        <v>5</v>
+      </c>
+      <c r="U6" s="30">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="22"/>
+      <c r="X6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Y6" s="27">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AF6" s="24"/>
+    </row>
+    <row r="7" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="R7" s="4">
+        <v>4</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="30">
+        <v>6</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>1</v>
+      </c>
+      <c r="W7" s="23"/>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>110</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="20">
+        <v>100011</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="30">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="U8" s="30">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4">
+        <v>5123</v>
+      </c>
+      <c r="W8" s="22"/>
+      <c r="X8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>110</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>111</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+    </row>
+    <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="20">
+        <v>101011</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="4">
+        <v>6</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="30">
+        <v>10</v>
+      </c>
+      <c r="U9" s="30">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="V9" s="30">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="W9" s="23"/>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="27">
+        <v>1001</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>1010</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="K10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="4">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="30">
+        <v>11</v>
+      </c>
+      <c r="U10" s="30">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="V10" s="30">
+        <v>10</v>
+      </c>
+      <c r="W10" s="23"/>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>1010</v>
+      </c>
+      <c r="Z10" s="27">
+        <v>1010</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>1011</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>100100</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="4">
+        <v>8</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="30">
+        <v>14</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="6">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="Y11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+    </row>
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>100101</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="4">
+        <v>9</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="30">
+        <v>12</v>
+      </c>
+      <c r="U12" s="30">
+        <v>11</v>
+      </c>
+      <c r="V12" s="30">
+        <v>10</v>
+      </c>
+      <c r="W12" s="23"/>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>1011</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>1010</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>1100</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>101000</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="4">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="30">
+        <v>10</v>
+      </c>
+      <c r="U13" s="30">
+        <v>12</v>
+      </c>
+      <c r="V13" s="4">
+        <v>25</v>
+      </c>
+      <c r="W13" s="22"/>
+      <c r="X13" s="6">
+        <v>1101</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>1100</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>1010</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+    </row>
+    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>101010</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="4">
+        <v>11</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="30">
+        <v>13</v>
+      </c>
+      <c r="U14" s="30">
+        <v>10</v>
+      </c>
+      <c r="V14" s="4">
+        <v>8670</v>
+      </c>
+      <c r="W14" s="22"/>
+      <c r="X14" s="6">
+        <v>1100</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>1010</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>1101</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+    </row>
+    <row r="15" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" s="4">
+        <v>12</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="30">
+        <v>20</v>
+      </c>
+      <c r="U15" s="30">
+        <v>6</v>
+      </c>
+      <c r="V15" s="4">
+        <v>-9</v>
+      </c>
+      <c r="W15" s="22"/>
+      <c r="X15" s="6">
+        <v>100011</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>10100</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+    </row>
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1101</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="31">
+        <v>13</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="32">
+        <v>14</v>
+      </c>
+      <c r="U16" s="32">
+        <v>13</v>
+      </c>
+      <c r="V16" s="32">
+        <v>10</v>
+      </c>
+      <c r="W16" s="23"/>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>1101</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>1010</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>1110</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="31">
+        <v>14</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="32">
+        <v>15</v>
+      </c>
+      <c r="U17" s="32">
+        <v>13</v>
+      </c>
+      <c r="V17" s="31">
+        <v>30</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="X17" s="6">
+        <v>1010</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>1101</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>1111</v>
+      </c>
+      <c r="AA17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+    </row>
+    <row r="18" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>101100</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="4">
+        <v>15</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="30">
+        <v>17</v>
+      </c>
+      <c r="U18" s="30">
+        <v>7</v>
+      </c>
+      <c r="V18" s="4">
+        <v>5</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="27">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="27">
+        <v>10001</v>
+      </c>
+      <c r="AB18" s="27">
+        <v>101</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1010</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="4">
+        <v>16</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="30">
+        <v>18</v>
+      </c>
+      <c r="U19" s="30">
+        <v>13</v>
+      </c>
+      <c r="V19" s="4">
+        <v>3</v>
+      </c>
+      <c r="W19" s="22"/>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="27">
+        <v>1101</v>
+      </c>
+      <c r="AA19" s="27">
+        <v>10010</v>
+      </c>
+      <c r="AB19" s="27">
+        <v>11</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>101110</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="4">
+        <v>17</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="30">
+        <v>19</v>
+      </c>
+      <c r="U20" s="30">
+        <v>11</v>
+      </c>
+      <c r="V20" s="4">
+        <v>5</v>
+      </c>
+      <c r="W20" s="22"/>
+      <c r="X20" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>1011</v>
+      </c>
+      <c r="Z20" s="27">
+        <v>10011</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+    </row>
+    <row r="21" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>110000</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="4">
+        <v>18</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="30">
+        <v>20</v>
+      </c>
+      <c r="U21" s="30">
+        <v>20</v>
+      </c>
+      <c r="V21" s="4">
+        <v>9</v>
+      </c>
+      <c r="W21" s="22"/>
+      <c r="X21" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y21" s="27">
+        <v>10100</v>
+      </c>
+      <c r="Z21" s="27">
+        <v>10100</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+    </row>
+    <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="R22" s="4">
+        <v>19</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="30">
+        <v>22</v>
+      </c>
+      <c r="U22" s="30">
+        <v>10</v>
+      </c>
+      <c r="V22" s="30">
+        <v>21</v>
+      </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>1010</v>
+      </c>
+      <c r="Z22" s="27">
+        <v>10101</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>10110</v>
+      </c>
+      <c r="AB22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="20">
+        <v>100</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" s="4">
+        <v>20</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="30">
+        <v>23</v>
+      </c>
+      <c r="U23" s="30">
+        <v>18</v>
+      </c>
+      <c r="V23" s="4">
+        <v>9999</v>
+      </c>
+      <c r="W23" s="22"/>
+      <c r="X23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="Y23" s="27">
+        <v>10010</v>
+      </c>
+      <c r="Z23" s="27">
+        <v>10111</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+    </row>
+    <row r="24" spans="2:29" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="20">
+        <v>101</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="4">
+        <v>21</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="30">
+        <v>21</v>
+      </c>
+      <c r="U24" s="30">
+        <v>20</v>
+      </c>
+      <c r="V24" s="4">
+        <v>9</v>
+      </c>
+      <c r="W24" s="22"/>
+      <c r="X24" s="6">
+        <v>101011</v>
+      </c>
+      <c r="Y24" s="27">
+        <v>10101</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>10100</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+    </row>
+    <row r="25" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="20">
+        <v>10</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="4">
+        <v>22</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="30">
+        <v>19</v>
+      </c>
+      <c r="U25" s="30">
+        <v>17</v>
+      </c>
+      <c r="V25" s="4">
+        <v>5</v>
+      </c>
+      <c r="W25" s="22"/>
+      <c r="X25" s="6">
+        <v>101011</v>
+      </c>
+      <c r="Y25" s="27">
+        <v>10011</v>
+      </c>
+      <c r="Z25" s="27">
+        <v>10001</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+    </row>
+    <row r="26" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="20">
+        <v>11</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R26" s="4">
+        <v>23</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="30">
+        <v>20</v>
+      </c>
+      <c r="U26" s="30">
+        <v>6</v>
+      </c>
+      <c r="V26" s="4">
+        <v>-9</v>
+      </c>
+      <c r="W26" s="22"/>
+      <c r="X26" s="6">
+        <v>101011</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>10100</v>
+      </c>
+      <c r="Z26" s="27">
+        <v>110</v>
+      </c>
+      <c r="AA26" s="28">
+        <v>1111111111110110</v>
+      </c>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R27" s="4">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="30">
+        <v>10</v>
+      </c>
+      <c r="U27" s="30">
+        <v>13</v>
+      </c>
+      <c r="V27" s="4">
+        <v>4</v>
+      </c>
+      <c r="W27" s="22"/>
+      <c r="X27" s="6">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="27">
+        <v>1010</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>1101</v>
+      </c>
+      <c r="AA27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R28" s="4">
+        <v>25</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="30">
+        <v>17</v>
+      </c>
+      <c r="U28" s="30">
+        <v>17</v>
+      </c>
+      <c r="V28" s="4">
+        <v>19</v>
+      </c>
+      <c r="W28" s="22"/>
+      <c r="X28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="27">
+        <v>10001</v>
+      </c>
+      <c r="Z28" s="27">
+        <v>10001</v>
+      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R29" s="4">
+        <v>26</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="30">
+        <v>17</v>
+      </c>
+      <c r="U29" s="30">
+        <v>13</v>
+      </c>
+      <c r="V29" s="4">
+        <v>4</v>
+      </c>
+      <c r="W29" s="22"/>
+      <c r="X29" s="6">
+        <v>100</v>
+      </c>
+      <c r="Y29" s="27">
+        <v>10001</v>
+      </c>
+      <c r="Z29" s="27">
+        <v>1101</v>
+      </c>
+      <c r="AA29" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R30" s="4">
+        <v>27</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T30" s="30">
+        <v>24</v>
+      </c>
+      <c r="U30" s="30">
+        <v>22</v>
+      </c>
+      <c r="V30" s="30">
+        <v>23</v>
+      </c>
+      <c r="W30" s="23"/>
+      <c r="X30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="27">
+        <v>10110</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>10111</v>
+      </c>
+      <c r="AA30" s="27">
+        <v>11000</v>
+      </c>
+      <c r="AB30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R31" s="4">
+        <v>28</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="30">
+        <v>24</v>
+      </c>
+      <c r="U31" s="30">
+        <v>20</v>
+      </c>
+      <c r="V31" s="4">
+        <v>4</v>
+      </c>
+      <c r="W31" s="22"/>
+      <c r="X31" s="6">
+        <v>101</v>
+      </c>
+      <c r="Y31" s="27">
+        <v>11000</v>
+      </c>
+      <c r="Z31" s="27">
+        <v>10100</v>
+      </c>
+      <c r="AA31" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R32" s="4">
+        <v>29</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="30">
+        <v>25</v>
+      </c>
+      <c r="U32" s="30">
+        <v>22</v>
+      </c>
+      <c r="V32" s="30">
+        <v>24</v>
+      </c>
+      <c r="W32" s="23"/>
+      <c r="X32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="27">
+        <v>10110</v>
+      </c>
+      <c r="Z32" s="27">
+        <v>11000</v>
+      </c>
+      <c r="AA32" s="27">
+        <v>11001</v>
+      </c>
+      <c r="AB32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="33" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R33" s="4">
+        <v>30</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="30">
+        <v>25</v>
+      </c>
+      <c r="U33" s="30">
+        <v>24</v>
+      </c>
+      <c r="V33" s="4">
+        <v>4</v>
+      </c>
+      <c r="W33" s="22"/>
+      <c r="X33" s="6">
+        <v>101</v>
+      </c>
+      <c r="Y33" s="27">
+        <v>11001</v>
+      </c>
+      <c r="Z33" s="27">
+        <v>11000</v>
+      </c>
+      <c r="AA33" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+    </row>
+    <row r="34" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R34" s="4">
+        <v>31</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" s="30">
+        <v>5</v>
+      </c>
+      <c r="U34" s="30">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>4</v>
+      </c>
+      <c r="W34" s="22"/>
+      <c r="X34" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y34" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="27">
+        <v>101</v>
+      </c>
+      <c r="AA34" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+    </row>
+    <row r="35" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R35" s="4">
+        <v>32</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="30">
+        <v>6</v>
+      </c>
+      <c r="U35" s="30">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>8</v>
+      </c>
+      <c r="W35" s="22"/>
+      <c r="X35" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y35" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="27">
+        <v>110</v>
+      </c>
+      <c r="AA35" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+    </row>
+    <row r="36" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R36" s="4">
+        <v>33</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T36" s="30">
+        <v>7</v>
+      </c>
+      <c r="U36" s="30">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>12</v>
+      </c>
+      <c r="W36" s="22"/>
+      <c r="X36" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y36" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="27">
+        <v>111</v>
+      </c>
+      <c r="AA36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+    </row>
+    <row r="37" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R37" s="4">
+        <v>34</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T37" s="30">
+        <v>8</v>
+      </c>
+      <c r="U37" s="30">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>16</v>
+      </c>
+      <c r="W37" s="22"/>
+      <c r="X37" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y37" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="27">
+        <v>1000</v>
+      </c>
+      <c r="AA37" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+    </row>
+    <row r="38" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R38" s="4">
+        <v>35</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T38" s="30">
+        <v>9</v>
+      </c>
+      <c r="U38" s="30">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <v>20</v>
+      </c>
+      <c r="W38" s="22"/>
+      <c r="X38" s="6">
+        <v>10011</v>
+      </c>
+      <c r="Y38" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="27">
+        <v>1001</v>
+      </c>
+      <c r="AA38" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+    </row>
+    <row r="39" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R39" s="4">
+        <v>36</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="6">
+        <v>11</v>
+      </c>
+      <c r="Y39" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+    </row>
+    <row r="40" spans="18:29" x14ac:dyDescent="0.25">
+      <c r="R40" s="4">
+        <v>37</v>
+      </c>
+      <c r="S40" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="37"/>
+      <c r="X40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="Y39:AC39"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AA35:AC35"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="AA31:AC31"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSU\Winter 2023\SV 571\Project\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A52939-B07B-454E-A680-54EEA8F2E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9B7CEC-959C-405F-9986-7E2F86B1722B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D399366E-FB9E-4962-8D0A-820542444999}"/>
   </bookViews>
@@ -738,9 +738,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,9 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,16 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,6 +789,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3425ED87-52DE-43F6-939E-8957E98FB7FF}">
   <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,1079 +1139,1079 @@
     <col min="11" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="Q2" s="23" t="s">
+      <c r="J2" s="22"/>
+      <c r="Q2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="19">
         <v>1.0000000001E+31</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="19">
         <v>1.0000999999999999E+26</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="Q5" s="24">
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="Q5" s="19">
         <v>1.1000110000000001E+27</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="Q6" s="24">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="Q6" s="19">
         <v>1.01001000001E+28</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>100000</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="24">
-        <v>1.0000100101E+31</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="19">
+        <v>1.0000100100999999E+25</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>100001</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="Q8" s="24">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="19">
         <v>1.1000101001010001E+28</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="Q9" s="24">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="Q9" s="19">
         <v>1.110011000101E+28</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>100100</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="19">
         <v>1.0000000000100999E+29</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>100101</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="19">
         <v>1.0000011100101E+29</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
-      <c r="J12" s="20" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="11"/>
+      <c r="J12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="19">
         <v>1.00100111001E+29</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>101</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="19">
         <v>1.0100100000011E+29</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>110</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="19">
         <v>1.011010010011E+29</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>111</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="19">
         <v>1.100010100011E+29</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>1000</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="19">
         <v>1.0000000001E+31</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>1001</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="19">
         <v>1.001010001E+31</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>1011</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="19">
         <v>1.0010001011E+31</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>1010</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="19">
         <v>1.0010100011E+31</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>1100</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="19">
         <v>1.00101001E+31</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="16"/>
-      <c r="Q21" s="24">
+      <c r="B21" s="9"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="11"/>
+      <c r="Q21" s="19">
         <v>1.0010100101E+31</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>101000</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="19">
         <v>1.001010011E+31</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>101001</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="19">
         <v>1.0010100111E+31</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>101010</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="19">
         <v>1.0010101E+31</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q25" s="24">
+      <c r="Q25" s="19">
         <v>1.0010101001E+31</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q26" s="24">
+      <c r="Q26" s="19">
         <v>1.0010101009999999E+31</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q27" s="24">
+      <c r="Q27" s="19">
         <v>1.0010101011E+31</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q28" s="24">
+      <c r="Q28" s="19">
         <v>1.0000000001E+31</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q29" s="24">
+      <c r="Q29" s="19">
         <v>1.00000001E+31</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="S29" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q30" s="24">
+      <c r="Q30" s="19">
         <v>1.0000000010000001E+31</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q31" s="24">
+      <c r="Q31" s="19">
         <v>1.0000000011E+31</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="R31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q32" s="24">
+      <c r="Q32" s="19">
         <v>1.0000001001E+31</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S32" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q33" s="24">
+      <c r="Q33" s="19">
         <v>1.0100100000011E+29</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="R33" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="9" t="s">
+      <c r="S33" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q34" s="24">
+      <c r="Q34" s="19">
         <v>1.010000010001E+26</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="S34" s="9" t="s">
+      <c r="S34" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q35" s="24">
+      <c r="Q35" s="19">
         <v>1.001000010101E+31</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="S35" s="9" t="s">
+      <c r="S35" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q36" s="24">
+      <c r="Q36" s="19">
         <v>1.0010000110010001E+31</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="S36" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q37" s="24">
+      <c r="Q37" s="19">
         <v>1.10100100101001E+27</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="S37" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q38" s="24">
+      <c r="Q38" s="19">
         <v>1.000000101E+31</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="S38" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="24">
+      <c r="Q39" s="19">
         <v>1.0000001011E+31</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="S39" s="9" t="s">
+      <c r="S39" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="24">
+      <c r="Q40" s="19">
         <v>1.0100101001009999E+29</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="S40" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q41" s="24">
+      <c r="Q41" s="19">
         <v>1.0101001010010099E+28</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="S41" s="9" t="s">
+      <c r="S41" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q42" s="24">
+      <c r="Q42" s="19">
         <v>1.010000000001E+31</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="S42" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q43" s="24">
+      <c r="Q43" s="19">
         <v>1.001010010101E+31</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="S43" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q44" s="24">
+      <c r="Q44" s="19">
         <v>1.0010100110010001E+31</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="R44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="S44" s="9" t="s">
+      <c r="S44" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q45" s="24">
+      <c r="Q45" s="19">
         <v>1.00000000110001E+31</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="R45" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="S45" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q46" s="24">
+      <c r="Q46" s="19">
         <v>1.0100100010999999E+31</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="S46" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q47" s="24">
+      <c r="Q47" s="19">
         <v>1.00000000100001E+31</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="S47" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q48" s="24">
+      <c r="Q48" s="19">
         <v>1.010010001E+31</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="S48" s="9" t="s">
+      <c r="S48" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q49" s="24">
+      <c r="Q49" s="19">
         <v>1.0000000001E+31</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="S49" s="9" t="s">
+      <c r="S49" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q50" s="24">
+      <c r="Q50" s="19">
         <v>1.001000001E+31</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="S50" s="9" t="s">
+      <c r="S50" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q51" s="24">
+      <c r="Q51" s="19">
         <v>1.0010000011E+31</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="R51" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="S51" s="9" t="s">
+      <c r="S51" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q52" s="24">
+      <c r="Q52" s="19">
         <v>1.0010000100000001E+31</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="S52" s="9" t="s">
+      <c r="S52" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q53" s="24">
+      <c r="Q53" s="19">
         <v>1.0010000101E+31</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="R53" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="S53" s="9" t="s">
+      <c r="S53" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q54" s="24">
+      <c r="Q54" s="19">
         <v>1.001000011E+31</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="R54" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="S54" s="9" t="s">
+      <c r="S54" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q55" s="24">
+      <c r="Q55" s="19">
         <v>1.0010000111E+31</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="R55" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="S55" s="9" t="s">
+      <c r="S55" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q56" s="24">
+      <c r="Q56" s="19">
         <v>1.0010001E+31</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="S56" s="9" t="s">
+      <c r="S56" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q57" s="24">
+      <c r="Q57" s="19">
         <v>1.0010001001E+31</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="S57" s="9" t="s">
+      <c r="S57" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q58" s="24">
+      <c r="Q58" s="19">
         <v>1.0010001009999999E+31</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="R58" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="S58" s="9" t="s">
+      <c r="S58" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q59" s="24">
+      <c r="Q59" s="19">
         <v>1.0010001011E+31</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="R59" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="S59" s="9" t="s">
+      <c r="S59" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="60" spans="17:19" x14ac:dyDescent="0.25">
-      <c r="Q60" s="24">
+      <c r="Q60" s="19">
         <v>1.0101E+31</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="R60" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="S60" s="9" t="s">
+      <c r="S60" s="7" t="s">
         <v>163</v>
       </c>
     </row>
